--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>first</t>
   </si>
@@ -84,7 +84,7 @@
     <t>category</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Double room for single use, breakfast included (rates per room and night)</t>
+    <t>H. Asia Gardens: Double room for single use, breakfast included (125 rooms x 4 nights)</t>
   </si>
   <si>
     <t>hotel</t>
@@ -93,97 +93,52 @@
     <t>H. Asia Gardens: Double room, breakfast included (rates per room and night)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Shanghai 4+5 (plenary meeting room up to 125 pax in cabaret with daylight) (FD rate per day)</t>
+    <t>H. Asia Gardens: Shanghai 4+5 (plenary meeting room up to 125 pax in cabaret with daylight) (FD rate per day) (3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Shanghai 2 (breakout room, 104m2 with daylight) (FD rate per day)</t>
+    <t>H. Asia Gardens: Shanghai 2 (breakout room, 104m2 with daylight) (3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Basic sound system for the plenary room - per day</t>
+    <t>H. Asia Gardens: Basic sound system for the plenary room - (3 days)</t>
   </si>
   <si>
     <t>audiovisuals</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Basic sound system for the breakout room - per day</t>
+    <t>H. Asia Gardens: Basic sound system for the breakout room - (3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Technician 8h - per day</t>
+    <t>H. Asia Gardens: Technician 8h - (3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Plenary room - Screen from - per day</t>
+    <t>H. Asia Gardens: Plenary room - Screen from -(3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Breakout room - Screen from - per day</t>
+    <t>H. Asia Gardens: Breakout room - Screen from - (3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Plenary room projector - from - per day</t>
+    <t>H. Asia Gardens: Plenary room projector - from -(3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Breakout room projector - from - per day</t>
+    <t>H. Asia Gardens: Breakout room projector - from -(3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Flipchart - per day</t>
+    <t>H. Asia Gardens: Flipchart - (3x3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Morning Coffee break, from - per day and person</t>
+    <t>H. Asia Gardens: Morning Coffee break, from - (3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Afternoon coffee break, from - per day and person</t>
+    <t>H. Asia Gardens: Afternoon coffee break, from - (3 days)</t>
   </si>
   <si>
-    <t>H. Asia Gardens: Lunch including non alcoholic drinks - per day and person</t>
+    <t>H. Asia Gardens: Lunch including non alcoholic drinks - per day and person (3 days)</t>
   </si>
   <si>
     <t xml:space="preserve">H. Asia Gardens: Dinner including drinks - per day and person </t>
   </si>
   <si>
     <t xml:space="preserve">H. Asia Gardens: Gala Dinner including drinks - per day and person </t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Double room for single use, breakfast included (125 rooms x 4 nights)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Double room breakfast included</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Plenary room: Palapa FD (3 days)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Breakout room: Palmeral FD (1 day)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Plenary room- basic sound system including technician (3 days)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Breakout room: basic sound system (1 days)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Plenary room - projector ( 6000 lumens full HD) (3 days)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Breakout room: projector (4000 lumens)  (1 days)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Plenary room screen  from (3 days)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Breakout room screen from (1 day)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Morning Coffee break from (125 pax x 3 days)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Afternoon Coffee break from (125 pax x 3 days)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Lunch menu including non alcoholic drinks (125 pax x 3 days), rates from</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Coffee station inside the meeting room -(3 days)</t>
-  </si>
-  <si>
-    <t>SH Villa Gadea: Dinner menu including drinks (1 day)</t>
   </si>
   <si>
     <t xml:space="preserve">Restaurant La Falua, dinner menu including drinks and coffee, from </t>
@@ -195,7 +150,7 @@
     <t xml:space="preserve">Bay Club Altea, All-to-share menu including drinks and coffee, from </t>
   </si>
   <si>
-    <t>Restaurant Rice, group menu (estimated rates)</t>
+    <t>Restaurant Rice, group menu (estimated rates - to be confirmed)</t>
   </si>
   <si>
     <t>Restaurant Son de Mar, dinner menu drinks and coffees included, from</t>
@@ -458,12 +413,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="23"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="24"/>
         <bgColor auto="1"/>
       </patternFill>
@@ -486,8 +435,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="28"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="73">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -636,27 +591,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
+      <left>
+        <color indexed="23"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
+      <right>
+        <color indexed="23"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
+      <top>
+        <color indexed="23"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+      <bottom>
+        <color indexed="23"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -696,22 +642,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -765,9 +696,7 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -827,7 +756,9 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -837,7 +768,9 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -853,7 +786,9 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -863,7 +798,9 @@
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -891,6 +828,21 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -900,40 +852,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="8"/>
       </top>
@@ -943,83 +863,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1101,15 +952,6 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1289,17 +1131,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -1387,7 +1218,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1415,10 +1246,10 @@
     <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1454,13 +1285,13 @@
     <xf numFmtId="20" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1472,7 +1303,7 @@
     <xf numFmtId="20" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1496,7 +1327,7 @@
     <xf numFmtId="20" fontId="5" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1517,7 +1348,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1583,14 +1414,11 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1598,325 +1426,316 @@
     <xf numFmtId="49" fontId="8" fillId="13" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="15" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="17" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="17" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="17" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="17" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="16" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="17" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="17" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="17" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="17" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="65" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="67" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1950,6 +1769,7 @@
       <rgbColor rgb="fffeda6d"/>
       <rgbColor rgb="fff2b086"/>
       <rgbColor rgb="ff91a9da"/>
+      <rgbColor rgb="00000000"/>
       <rgbColor rgb="ffed7d31"/>
       <rgbColor rgb="fff4f4f4"/>
       <rgbColor rgb="ffd8d8d8"/>
@@ -1971,7 +1791,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>48741</xdr:colOff>
+      <xdr:colOff>48742</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1993,7 +1813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7286625" y="647700"/>
-          <a:ext cx="2922117" cy="1000125"/>
+          <a:ext cx="2922118" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2253,17 +2073,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2291,10 +2111,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2542,12 +2362,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2834,7 +2654,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2862,10 +2682,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -14704,1083 +14524,585 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:AG2846"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" defaultGridColor="0" colorId="23"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="64" customWidth="1"/>
-    <col min="2" max="2" width="14" style="64" customWidth="1"/>
-    <col min="3" max="3" width="72.6719" style="64" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="64" customWidth="1"/>
-    <col min="5" max="5" width="11.8516" style="64" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.6484" style="64" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="64" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.6719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.67188" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6719" style="1" customWidth="1"/>
+    <col min="9" max="33" width="8.85156" style="1" customWidth="1"/>
+    <col min="34" max="256" width="8.85156" style="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="65"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="67"/>
-      <c r="B13" t="s" s="68">
+    <row r="13" s="65" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B13" t="s" s="66">
         <v>16</v>
       </c>
-      <c r="C13" t="s" s="69">
+      <c r="C13" t="s" s="67">
         <v>17</v>
       </c>
-      <c r="D13" t="s" s="69">
+      <c r="D13" t="s" s="67">
         <v>18</v>
       </c>
-      <c r="E13" t="s" s="69">
+      <c r="E13" t="s" s="67">
         <v>19</v>
       </c>
-      <c r="F13" t="s" s="70">
+      <c r="F13" t="s" s="68">
         <v>20</v>
       </c>
-      <c r="G13" t="s" s="71">
+      <c r="G13" t="s" s="69">
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="14.15" customHeight="1">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" t="s" s="74">
+    <row r="14" s="70" customFormat="1" ht="14.15" customHeight="1">
+      <c r="B14" s="71"/>
+      <c r="C14" t="s" s="72">
         <v>22</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="73">
+        <v>500</v>
+      </c>
+      <c r="E14" s="74">
+        <v>220</v>
+      </c>
+      <c r="F14" s="75">
+        <f>D14*E14</f>
+        <v>110000</v>
+      </c>
+      <c r="G14" t="s" s="76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" s="65" customFormat="1" ht="13.65" customHeight="1">
+      <c r="B15" s="77"/>
+      <c r="C15" t="s" s="78">
+        <v>24</v>
+      </c>
+      <c r="D15" s="79">
         <v>0</v>
       </c>
-      <c r="E14" s="76">
-        <v>220</v>
-      </c>
-      <c r="F14" s="77">
-        <f>D14*E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="79"/>
-      <c r="C15" t="s" s="80">
-        <v>24</v>
-      </c>
-      <c r="D15" s="81">
-        <v>0</v>
-      </c>
-      <c r="E15" s="82">
+      <c r="E15" s="80">
         <v>242</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="81">
         <f>D15*E15</f>
         <v>0</v>
       </c>
-      <c r="G15" t="s" s="78">
+      <c r="G15" t="s" s="82">
         <v>23</v>
       </c>
     </row>
-    <row r="16" ht="24.65" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="79"/>
+    <row r="16" s="70" customFormat="1" ht="24.65" customHeight="1">
+      <c r="B16" s="83"/>
       <c r="C16" t="s" s="84">
         <v>25</v>
       </c>
       <c r="D16" s="85">
+        <v>3</v>
+      </c>
+      <c r="E16" s="86">
+        <v>1150</v>
+      </c>
+      <c r="F16" s="87">
+        <f>D16*E16</f>
+        <v>3450</v>
+      </c>
+      <c r="G16" t="s" s="76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" s="65" customFormat="1" ht="13.65" customHeight="1">
+      <c r="B17" s="77"/>
+      <c r="C17" t="s" s="88">
+        <v>26</v>
+      </c>
+      <c r="D17" s="79">
+        <v>3</v>
+      </c>
+      <c r="E17" s="80">
+        <v>545</v>
+      </c>
+      <c r="F17" s="81">
+        <f>D17*E17</f>
+        <v>1635</v>
+      </c>
+      <c r="G17" t="s" s="82">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" s="70" customFormat="1" ht="13.65" customHeight="1">
+      <c r="B18" s="83"/>
+      <c r="C18" t="s" s="89">
+        <v>27</v>
+      </c>
+      <c r="D18" s="90">
+        <v>3</v>
+      </c>
+      <c r="E18" s="86">
+        <v>755</v>
+      </c>
+      <c r="F18" s="87">
+        <f>D18*E18</f>
+        <v>2265</v>
+      </c>
+      <c r="G18" t="s" s="76">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" s="65" customFormat="1" ht="13.65" customHeight="1">
+      <c r="B19" s="77"/>
+      <c r="C19" t="s" s="88">
+        <v>29</v>
+      </c>
+      <c r="D19" s="79">
+        <v>3</v>
+      </c>
+      <c r="E19" s="80">
+        <v>415</v>
+      </c>
+      <c r="F19" s="81">
+        <f>D19*E19</f>
+        <v>1245</v>
+      </c>
+      <c r="G19" t="s" s="82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" s="70" customFormat="1" ht="13.65" customHeight="1">
+      <c r="B20" s="83"/>
+      <c r="C20" t="s" s="89">
+        <v>30</v>
+      </c>
+      <c r="D20" s="90">
+        <v>3</v>
+      </c>
+      <c r="E20" s="86">
+        <v>275</v>
+      </c>
+      <c r="F20" s="87">
+        <f>D20*E20</f>
+        <v>825</v>
+      </c>
+      <c r="G20" t="s" s="76">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" s="65" customFormat="1" ht="13.65" customHeight="1">
+      <c r="B21" s="77"/>
+      <c r="C21" t="s" s="88">
+        <v>31</v>
+      </c>
+      <c r="D21" s="79">
+        <v>3</v>
+      </c>
+      <c r="E21" s="80">
+        <v>230</v>
+      </c>
+      <c r="F21" s="81">
+        <f>D21*E21</f>
+        <v>690</v>
+      </c>
+      <c r="G21" t="s" s="82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" s="70" customFormat="1" ht="13.65" customHeight="1">
+      <c r="B22" s="83"/>
+      <c r="C22" t="s" s="89">
+        <v>32</v>
+      </c>
+      <c r="D22" s="90">
+        <v>3</v>
+      </c>
+      <c r="E22" s="86">
+        <v>140</v>
+      </c>
+      <c r="F22" s="87">
+        <f>D22*E22</f>
+        <v>420</v>
+      </c>
+      <c r="G22" t="s" s="76">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" s="65" customFormat="1" ht="13.65" customHeight="1">
+      <c r="B23" s="77"/>
+      <c r="C23" t="s" s="88">
+        <v>33</v>
+      </c>
+      <c r="D23" s="79">
+        <v>3</v>
+      </c>
+      <c r="E23" s="80">
+        <v>275</v>
+      </c>
+      <c r="F23" s="81">
+        <f>D23*E23</f>
+        <v>825</v>
+      </c>
+      <c r="G23" t="s" s="82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" s="70" customFormat="1" ht="13.65" customHeight="1">
+      <c r="B24" s="83"/>
+      <c r="C24" t="s" s="89">
+        <v>34</v>
+      </c>
+      <c r="D24" s="90">
+        <v>3</v>
+      </c>
+      <c r="E24" s="86">
+        <v>230</v>
+      </c>
+      <c r="F24" s="87">
+        <f>D24*E24</f>
+        <v>690</v>
+      </c>
+      <c r="G24" t="s" s="76">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" s="65" customFormat="1" ht="13.65" customHeight="1">
+      <c r="B25" s="77"/>
+      <c r="C25" t="s" s="88">
+        <v>35</v>
+      </c>
+      <c r="D25" s="79">
+        <v>9</v>
+      </c>
+      <c r="E25" s="80">
+        <v>31</v>
+      </c>
+      <c r="F25" s="81">
+        <f>D25*E25</f>
+        <v>279</v>
+      </c>
+      <c r="G25" t="s" s="82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B26" s="83"/>
+      <c r="C26" t="s" s="89">
+        <v>36</v>
+      </c>
+      <c r="D26" s="90">
+        <v>3</v>
+      </c>
+      <c r="E26" s="86">
+        <v>13</v>
+      </c>
+      <c r="F26" s="87">
+        <f>D26*E26</f>
+        <v>39</v>
+      </c>
+      <c r="G26" t="s" s="76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" s="65" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B27" s="77"/>
+      <c r="C27" t="s" s="88">
+        <v>37</v>
+      </c>
+      <c r="D27" s="79">
+        <v>3</v>
+      </c>
+      <c r="E27" s="80">
+        <v>13</v>
+      </c>
+      <c r="F27" s="81">
+        <f>D27*E27</f>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s" s="82">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B28" s="83"/>
+      <c r="C28" t="s" s="89">
+        <v>38</v>
+      </c>
+      <c r="D28" s="90">
+        <v>3</v>
+      </c>
+      <c r="E28" s="86">
+        <v>65</v>
+      </c>
+      <c r="F28" s="87">
+        <f>D28*E28</f>
+        <v>195</v>
+      </c>
+      <c r="G28" t="s" s="76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" s="65" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B29" s="77"/>
+      <c r="C29" t="s" s="88">
+        <v>39</v>
+      </c>
+      <c r="D29" s="79">
+        <v>125</v>
+      </c>
+      <c r="E29" s="80">
+        <v>75</v>
+      </c>
+      <c r="F29" s="81">
+        <f>D29*E29</f>
+        <v>9375</v>
+      </c>
+      <c r="G29" t="s" s="82">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B30" s="83"/>
+      <c r="C30" t="s" s="91">
+        <v>40</v>
+      </c>
+      <c r="D30" s="92">
         <v>0</v>
       </c>
-      <c r="E16" s="82">
-        <v>1150</v>
-      </c>
-      <c r="F16" s="83">
-        <f>D16*E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="79"/>
-      <c r="C17" t="s" s="86">
-        <v>26</v>
-      </c>
-      <c r="D17" s="81">
-        <v>0</v>
-      </c>
-      <c r="E17" s="82">
-        <v>545</v>
-      </c>
-      <c r="F17" s="83">
-        <f>D17*E17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="79"/>
-      <c r="C18" t="s" s="87">
-        <v>27</v>
-      </c>
-      <c r="D18" s="81">
-        <v>0</v>
-      </c>
-      <c r="E18" s="82">
-        <v>755</v>
-      </c>
-      <c r="F18" s="83">
-        <f>D18*E18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="79"/>
-      <c r="C19" t="s" s="86">
-        <v>29</v>
-      </c>
-      <c r="D19" s="81">
-        <v>0</v>
-      </c>
-      <c r="E19" s="82">
-        <v>410</v>
-      </c>
-      <c r="F19" s="83">
-        <f>D19*E19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="79"/>
-      <c r="C20" t="s" s="87">
-        <v>30</v>
-      </c>
-      <c r="D20" s="81">
-        <v>0</v>
-      </c>
-      <c r="E20" s="82">
-        <v>275</v>
-      </c>
-      <c r="F20" s="83">
-        <f>D20*E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="79"/>
-      <c r="C21" t="s" s="86">
-        <v>31</v>
-      </c>
-      <c r="D21" s="81">
-        <v>0</v>
-      </c>
-      <c r="E21" s="82">
-        <v>230</v>
-      </c>
-      <c r="F21" s="83">
-        <f>D21*E21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" ht="13.65" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="79"/>
-      <c r="C22" t="s" s="87">
-        <v>32</v>
-      </c>
-      <c r="D22" s="81">
-        <v>0</v>
-      </c>
-      <c r="E22" s="82">
-        <v>140</v>
-      </c>
-      <c r="F22" s="83">
-        <f>D22*E22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" ht="13.65" customHeight="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="79"/>
-      <c r="C23" t="s" s="86">
-        <v>33</v>
-      </c>
-      <c r="D23" s="81">
-        <v>0</v>
-      </c>
-      <c r="E23" s="82">
-        <v>275</v>
-      </c>
-      <c r="F23" s="83">
-        <f>D23*E23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" ht="13.65" customHeight="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="79"/>
-      <c r="C24" t="s" s="87">
-        <v>34</v>
-      </c>
-      <c r="D24" s="81">
-        <v>0</v>
-      </c>
-      <c r="E24" s="82">
-        <v>230</v>
-      </c>
-      <c r="F24" s="83">
-        <f>D24*E24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" ht="13.65" customHeight="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="79"/>
-      <c r="C25" t="s" s="86">
-        <v>35</v>
-      </c>
-      <c r="D25" s="81">
-        <v>0</v>
-      </c>
-      <c r="E25" s="82">
-        <v>32</v>
-      </c>
-      <c r="F25" s="83">
-        <f>D25*E25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="79"/>
-      <c r="C26" t="s" s="87">
-        <v>36</v>
-      </c>
-      <c r="D26" s="81">
-        <v>0</v>
-      </c>
-      <c r="E26" s="82">
-        <v>12.5</v>
-      </c>
-      <c r="F26" s="83">
-        <f>D26*E26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="72"/>
-      <c r="B27" s="79"/>
-      <c r="C27" t="s" s="86">
-        <v>37</v>
-      </c>
-      <c r="D27" s="81">
-        <v>0</v>
-      </c>
-      <c r="E27" s="82">
-        <v>12.5</v>
-      </c>
-      <c r="F27" s="83">
-        <f>D27*E27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="79"/>
-      <c r="C28" t="s" s="87">
-        <v>38</v>
-      </c>
-      <c r="D28" s="81">
-        <v>0</v>
-      </c>
-      <c r="E28" s="82">
-        <v>65</v>
-      </c>
-      <c r="F28" s="83">
-        <f>D28*E28</f>
-        <v>0</v>
-      </c>
-      <c r="G28" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="79"/>
-      <c r="C29" t="s" s="86">
-        <v>39</v>
-      </c>
-      <c r="D29" s="81">
-        <v>0</v>
-      </c>
-      <c r="E29" s="82">
-        <v>75</v>
-      </c>
-      <c r="F29" s="83">
-        <f>D29*E29</f>
-        <v>0</v>
-      </c>
-      <c r="G29" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="79"/>
-      <c r="C30" t="s" s="87">
-        <v>40</v>
-      </c>
-      <c r="D30" s="88">
-        <v>0</v>
-      </c>
-      <c r="E30" s="89">
-        <v>104</v>
-      </c>
-      <c r="F30" s="83">
+      <c r="E30" s="93">
+        <f>105</f>
+        <v>105</v>
+      </c>
+      <c r="F30" s="87">
         <f>D30*E30</f>
         <v>0</v>
       </c>
-      <c r="G30" t="s" s="78">
+      <c r="G30" t="s" s="76">
         <v>23</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="79"/>
-      <c r="C31" t="s" s="86">
+    <row r="31" s="65" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B31" s="77"/>
+      <c r="C31" t="s" s="94">
         <v>41</v>
       </c>
-      <c r="D31" s="90">
-        <f>(125*4)</f>
-        <v>500</v>
-      </c>
-      <c r="E31" s="91">
-        <v>132</v>
-      </c>
-      <c r="F31" s="83">
+      <c r="D31" s="95">
+        <v>125</v>
+      </c>
+      <c r="E31" s="96">
+        <v>65</v>
+      </c>
+      <c r="F31" s="81">
         <f>D31*E31</f>
-        <v>66000</v>
-      </c>
-      <c r="G31" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="79"/>
-      <c r="C32" t="s" s="92">
+        <v>8125</v>
+      </c>
+      <c r="G31" t="s" s="82">
         <v>42</v>
       </c>
-      <c r="D32" s="81">
+    </row>
+    <row r="32" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B32" s="83"/>
+      <c r="C32" t="s" s="89">
+        <v>43</v>
+      </c>
+      <c r="D32" s="90">
+        <v>125</v>
+      </c>
+      <c r="E32" s="93">
+        <f>(50/0.8)</f>
+        <v>62.5</v>
+      </c>
+      <c r="F32" s="87">
+        <f>D32*E32</f>
+        <v>7812.5</v>
+      </c>
+      <c r="G32" t="s" s="76">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" s="65" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B33" s="77"/>
+      <c r="C33" t="s" s="88">
+        <v>44</v>
+      </c>
+      <c r="D33" s="79">
         <v>0</v>
       </c>
-      <c r="E32" s="89">
-        <v>154</v>
-      </c>
-      <c r="F32" s="83">
-        <f>D32*E32</f>
+      <c r="E33" s="96">
+        <v>70</v>
+      </c>
+      <c r="F33" s="97">
+        <f>D33*E33</f>
         <v>0</v>
       </c>
-      <c r="G32" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="79"/>
-      <c r="C33" t="s" s="93">
-        <v>43</v>
-      </c>
-      <c r="D33" s="81">
+      <c r="G33" t="s" s="82">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B34" s="83"/>
+      <c r="C34" t="s" s="89">
+        <v>45</v>
+      </c>
+      <c r="D34" s="90">
+        <v>0</v>
+      </c>
+      <c r="E34" s="86">
+        <f>(30/0.8)*1.1</f>
+        <v>41.25</v>
+      </c>
+      <c r="F34" s="98">
+        <f>D34*E34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="s" s="76">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" s="65" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B35" s="77"/>
+      <c r="C35" t="s" s="88">
+        <v>46</v>
+      </c>
+      <c r="D35" s="79">
+        <v>1</v>
+      </c>
+      <c r="E35" s="80">
+        <v>3800</v>
+      </c>
+      <c r="F35" s="81">
+        <f>D35*E35</f>
+        <v>3800</v>
+      </c>
+      <c r="G35" t="s" s="82">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" s="70" customFormat="1" ht="24.65" customHeight="1">
+      <c r="B36" s="83"/>
+      <c r="C36" t="s" s="89">
+        <v>47</v>
+      </c>
+      <c r="D36" s="90">
+        <v>125</v>
+      </c>
+      <c r="E36" s="86">
+        <v>105</v>
+      </c>
+      <c r="F36" s="87">
+        <f>D36*E36</f>
+        <v>13125</v>
+      </c>
+      <c r="G36" t="s" s="76">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" s="65" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B37" s="77"/>
+      <c r="C37" t="s" s="88">
+        <v>48</v>
+      </c>
+      <c r="D37" s="79">
+        <v>0</v>
+      </c>
+      <c r="E37" s="80">
+        <v>330</v>
+      </c>
+      <c r="F37" s="81">
+        <f>D37*E37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="s" s="82">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B38" s="83"/>
+      <c r="C38" t="s" s="91">
+        <v>50</v>
+      </c>
+      <c r="D38" s="90">
         <v>3</v>
       </c>
-      <c r="E33" s="91">
-        <v>1320</v>
-      </c>
-      <c r="F33" s="83">
-        <f>D33*E33</f>
-        <v>3960</v>
-      </c>
-      <c r="G33" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="79"/>
-      <c r="C34" t="s" s="87">
-        <v>44</v>
-      </c>
-      <c r="D34" s="81">
-        <v>1</v>
-      </c>
-      <c r="E34" s="82">
-        <v>545</v>
-      </c>
-      <c r="F34" s="83">
-        <f>D34*E34</f>
-        <v>545</v>
-      </c>
-      <c r="G34" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="72"/>
-      <c r="B35" s="79"/>
-      <c r="C35" t="s" s="86">
-        <v>45</v>
-      </c>
-      <c r="D35" s="81">
-        <v>3</v>
-      </c>
-      <c r="E35" s="82">
-        <v>985</v>
-      </c>
-      <c r="F35" s="83">
-        <f>D35*E35</f>
-        <v>2955</v>
-      </c>
-      <c r="G35" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="72"/>
-      <c r="B36" s="79"/>
-      <c r="C36" t="s" s="87">
-        <v>46</v>
-      </c>
-      <c r="D36" s="81">
-        <v>1</v>
-      </c>
-      <c r="E36" s="82">
+      <c r="E38" s="93">
         <v>410</v>
       </c>
-      <c r="F36" s="83">
-        <f>D36*E36</f>
-        <v>410</v>
-      </c>
-      <c r="G36" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="72"/>
-      <c r="B37" s="79"/>
-      <c r="C37" t="s" s="86">
-        <v>47</v>
-      </c>
-      <c r="D37" s="81">
-        <v>3</v>
-      </c>
-      <c r="E37" s="82">
-        <v>765</v>
-      </c>
-      <c r="F37" s="83">
-        <f>D37*E37</f>
-        <v>2295</v>
-      </c>
-      <c r="G37" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="72"/>
-      <c r="B38" s="79"/>
-      <c r="C38" t="s" s="87">
-        <v>48</v>
-      </c>
-      <c r="D38" s="88">
-        <v>1</v>
-      </c>
-      <c r="E38" s="89">
-        <v>545</v>
-      </c>
-      <c r="F38" s="83">
+      <c r="F38" s="87">
         <f>D38*E38</f>
-        <v>545</v>
-      </c>
-      <c r="G38" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="79"/>
-      <c r="C39" t="s" s="86">
+        <v>1230</v>
+      </c>
+      <c r="G38" t="s" s="76">
         <v>49</v>
       </c>
-      <c r="D39" s="90">
-        <v>3</v>
-      </c>
-      <c r="E39" s="91">
-        <v>363</v>
-      </c>
-      <c r="F39" s="83">
+    </row>
+    <row r="39" s="65" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B39" s="99"/>
+      <c r="C39" t="s" s="100">
+        <v>51</v>
+      </c>
+      <c r="D39" s="101">
+        <v>9</v>
+      </c>
+      <c r="E39" s="102">
+        <v>505</v>
+      </c>
+      <c r="F39" s="97">
         <f>D39*E39</f>
-        <v>1089</v>
-      </c>
-      <c r="G39" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="72"/>
-      <c r="B40" s="79"/>
-      <c r="C40" t="s" s="87">
-        <v>50</v>
-      </c>
-      <c r="D40" s="81">
-        <v>1</v>
-      </c>
-      <c r="E40" s="89">
-        <v>106</v>
-      </c>
-      <c r="F40" s="83">
-        <f>D40*E40</f>
-        <v>106</v>
-      </c>
-      <c r="G40" t="s" s="78">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="72"/>
-      <c r="B41" s="79"/>
-      <c r="C41" t="s" s="86">
-        <v>51</v>
-      </c>
-      <c r="D41" s="81">
-        <f t="shared" si="28" ref="D41:D44">(125*3)</f>
-        <v>375</v>
-      </c>
-      <c r="E41" s="91">
-        <v>12.5</v>
-      </c>
-      <c r="F41" s="83">
-        <f>D41*E41</f>
-        <v>4687.5</v>
-      </c>
-      <c r="G41" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="72"/>
-      <c r="B42" s="79"/>
-      <c r="C42" t="s" s="92">
+        <v>4545</v>
+      </c>
+      <c r="G39" t="s" s="82">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="C40" t="s" s="103">
         <v>52</v>
       </c>
-      <c r="D42" s="81">
-        <f t="shared" si="28"/>
-        <v>375</v>
-      </c>
-      <c r="E42" s="89">
-        <v>12.5</v>
-      </c>
-      <c r="F42" s="83">
-        <f>D42*E42</f>
-        <v>4687.5</v>
-      </c>
-      <c r="G42" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="72"/>
-      <c r="B43" s="79"/>
-      <c r="C43" t="s" s="93">
+      <c r="F40" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B47" t="s" s="105">
         <v>53</v>
       </c>
-      <c r="D43" s="81">
-        <f t="shared" si="28"/>
-        <v>375</v>
-      </c>
-      <c r="E43" s="91">
-        <v>34.5</v>
-      </c>
-      <c r="F43" s="83">
-        <f>D43*E43</f>
-        <v>12937.5</v>
-      </c>
-      <c r="G43" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="72"/>
-      <c r="B44" s="79"/>
-      <c r="C44" t="s" s="87">
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="107"/>
+    </row>
+    <row r="48" s="70" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B48" t="s" s="105">
         <v>54</v>
       </c>
-      <c r="D44" s="88">
-        <f t="shared" si="28"/>
-        <v>375</v>
-      </c>
-      <c r="E44" s="82">
-        <v>8.5</v>
-      </c>
-      <c r="F44" s="83">
-        <f>D44*E44</f>
-        <v>3187.5</v>
-      </c>
-      <c r="G44" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="72"/>
-      <c r="B45" s="79"/>
-      <c r="C45" t="s" s="94">
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="108"/>
+    </row>
+    <row r="49" s="65" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B49" t="s" s="105">
         <v>55</v>
       </c>
-      <c r="D45" s="90">
-        <v>125</v>
-      </c>
-      <c r="E45" s="82">
-        <v>50</v>
-      </c>
-      <c r="F45" s="83">
-        <f>D45*E45</f>
-        <v>6250</v>
-      </c>
-      <c r="G45" t="s" s="78">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="72"/>
-      <c r="B46" s="79"/>
-      <c r="C46" t="s" s="95">
-        <v>56</v>
-      </c>
-      <c r="D46" s="81">
-        <v>125</v>
-      </c>
-      <c r="E46" s="82">
-        <v>65</v>
-      </c>
-      <c r="F46" s="83">
-        <f>D46*E46</f>
-        <v>8125</v>
-      </c>
-      <c r="G46" t="s" s="78">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="72"/>
-      <c r="B47" s="79"/>
-      <c r="C47" t="s" s="86">
-        <v>58</v>
-      </c>
-      <c r="D47" s="81">
-        <v>125</v>
-      </c>
-      <c r="E47" s="82">
-        <v>62.65</v>
-      </c>
-      <c r="F47" s="96">
-        <f>D47*E47</f>
-        <v>7831.25</v>
-      </c>
-      <c r="G47" t="s" s="78">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="72"/>
-      <c r="B48" s="79"/>
-      <c r="C48" t="s" s="87">
-        <v>59</v>
-      </c>
-      <c r="D48" s="81">
-        <v>0</v>
-      </c>
-      <c r="E48" s="82">
-        <v>75</v>
-      </c>
-      <c r="F48" s="97">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s" s="78">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="72"/>
-      <c r="B49" s="79"/>
-      <c r="C49" t="s" s="86">
-        <v>60</v>
-      </c>
-      <c r="D49" s="81">
-        <v>0</v>
-      </c>
-      <c r="E49" s="82">
-        <v>41.25</v>
-      </c>
-      <c r="F49" s="83">
-        <f>D49*E49</f>
-        <v>0</v>
-      </c>
-      <c r="G49" t="s" s="78">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="79"/>
-      <c r="C50" t="s" s="87">
-        <v>61</v>
-      </c>
-      <c r="D50" s="81">
-        <v>1</v>
-      </c>
-      <c r="E50" s="82">
-        <v>3782</v>
-      </c>
-      <c r="F50" s="83">
-        <f>D50*E50</f>
-        <v>3782</v>
-      </c>
-      <c r="G50" t="s" s="78">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" ht="24.65" customHeight="1">
-      <c r="A51" s="72"/>
-      <c r="B51" s="79"/>
-      <c r="C51" t="s" s="86">
-        <v>62</v>
-      </c>
-      <c r="D51" s="81">
-        <v>125</v>
-      </c>
-      <c r="E51" s="82">
-        <v>103</v>
-      </c>
-      <c r="F51" s="83">
-        <f>D51*E51</f>
-        <v>12875</v>
-      </c>
-      <c r="G51" t="s" s="78">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="72"/>
-      <c r="B52" s="79"/>
-      <c r="C52" t="s" s="87">
-        <v>63</v>
-      </c>
-      <c r="D52" s="81">
-        <v>0</v>
-      </c>
-      <c r="E52" s="82">
-        <v>330</v>
-      </c>
-      <c r="F52" s="83">
-        <f>D52*E52</f>
-        <v>0</v>
-      </c>
-      <c r="G52" t="s" s="78">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="72"/>
-      <c r="B53" s="79"/>
-      <c r="C53" t="s" s="94">
-        <v>65</v>
-      </c>
-      <c r="D53" s="81">
-        <v>3</v>
-      </c>
-      <c r="E53" s="89">
-        <v>410</v>
-      </c>
-      <c r="F53" s="83">
-        <f>D53*E53</f>
-        <v>1230</v>
-      </c>
-      <c r="G53" t="s" s="78">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="72"/>
-      <c r="B54" s="98"/>
-      <c r="C54" t="s" s="99">
-        <v>66</v>
-      </c>
-      <c r="D54" s="100">
-        <v>9</v>
-      </c>
-      <c r="E54" s="101">
-        <v>505</v>
-      </c>
-      <c r="F54" s="96">
-        <f>D54*E54</f>
-        <v>4545</v>
-      </c>
-      <c r="G54" t="s" s="78">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="102"/>
-      <c r="B55" s="103"/>
-      <c r="C55" t="s" s="104">
-        <v>67</v>
-      </c>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="105">
-        <v>0</v>
-      </c>
-      <c r="G55" s="106"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="65"/>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="66"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="107"/>
-      <c r="B62" t="s" s="108">
-        <v>68</v>
-      </c>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="109"/>
-      <c r="G62" s="110"/>
-    </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="107"/>
-      <c r="B63" t="s" s="108">
-        <v>69</v>
-      </c>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="110"/>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="107"/>
-      <c r="B64" t="s" s="108">
-        <v>70</v>
-      </c>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="110"/>
-    </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="111"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="113"/>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="107"/>
+    </row>
+    <row r="50" s="70" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15800,496 +15122,496 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="114" customWidth="1"/>
-    <col min="2" max="2" width="6.67188" style="114" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="114" customWidth="1"/>
-    <col min="4" max="4" width="73.5" style="114" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="114" customWidth="1"/>
-    <col min="6" max="6" width="13.6719" style="114" customWidth="1"/>
-    <col min="7" max="7" width="14.1719" style="114" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="114" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="114" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="110" customWidth="1"/>
+    <col min="2" max="2" width="6.67188" style="110" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="110" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="110" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="110" customWidth="1"/>
+    <col min="6" max="6" width="13.6719" style="110" customWidth="1"/>
+    <col min="7" max="7" width="14.1719" style="110" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="110" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="110" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="115"/>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
+      <c r="A1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="121"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="118"/>
-      <c r="B3" s="122"/>
-      <c r="C3" t="s" s="123">
+      <c r="A3" s="114"/>
+      <c r="B3" s="118"/>
+      <c r="C3" t="s" s="119">
+        <v>56</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="117"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="114"/>
+      <c r="B4" s="118"/>
+      <c r="C4" t="s" s="122">
+        <v>57</v>
+      </c>
+      <c r="D4" s="123"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="117"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="114"/>
+      <c r="B5" s="118"/>
+      <c r="C5" t="s" s="122">
+        <v>58</v>
+      </c>
+      <c r="D5" s="123"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="117"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="114"/>
+      <c r="B6" s="118"/>
+      <c r="C6" t="s" s="122">
+        <v>59</v>
+      </c>
+      <c r="D6" s="123"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="117"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="114"/>
+      <c r="B7" s="118"/>
+      <c r="C7" t="s" s="122">
+        <v>60</v>
+      </c>
+      <c r="D7" s="123"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="117"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="114"/>
+      <c r="B8" s="118"/>
+      <c r="C8" t="s" s="124">
+        <v>61</v>
+      </c>
+      <c r="D8" s="125"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="117"/>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="114"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="117"/>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="114"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="117"/>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="114"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="117"/>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="114"/>
+      <c r="B12" s="115"/>
+      <c r="C12" t="s" s="127">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s" s="128">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s" s="128">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s" s="128">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s" s="129">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s" s="130">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="14.65" customHeight="1">
+      <c r="A13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="135"/>
+      <c r="H13" t="s" s="136">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="13.65" customHeight="1">
+      <c r="A14" s="114"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="141"/>
+      <c r="H14" t="s" s="136">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="13.65" customHeight="1">
+      <c r="A15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="146"/>
+      <c r="H15" t="s" s="136">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="141"/>
+      <c r="H16" t="s" s="136">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="38.25" customHeight="1">
+      <c r="A17" s="114"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="146"/>
+      <c r="H17" t="s" s="136">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="13.65" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="141"/>
+      <c r="H18" t="s" s="136">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="13.65" customHeight="1">
+      <c r="A19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="146"/>
+      <c r="H19" t="s" s="136">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" ht="13.65" customHeight="1">
+      <c r="A20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="141"/>
+      <c r="H20" t="s" s="136">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" ht="13.65" customHeight="1">
+      <c r="A21" s="114"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="146"/>
+      <c r="H21" t="s" s="136">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="141"/>
+      <c r="H22" t="s" s="136">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="A23" s="114"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="146"/>
+      <c r="H23" t="s" s="136">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" customHeight="1">
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="154"/>
+      <c r="H24" t="s" s="136">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" customHeight="1">
+      <c r="A25" s="114"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="155"/>
+      <c r="D25" t="s" s="156">
+        <v>52</v>
+      </c>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="158">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s" s="159">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="117"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1">
+      <c r="A27" s="114"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="117"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="A28" s="114"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="118"/>
+      <c r="D28" t="s" s="162">
+        <v>69</v>
+      </c>
+      <c r="E28" s="121"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="117"/>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="A29" s="114"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="118"/>
+      <c r="D29" t="s" s="163">
+        <v>70</v>
+      </c>
+      <c r="E29" s="121"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="117"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="114"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="118"/>
+      <c r="D30" t="s" s="164">
         <v>71</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="121"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="118"/>
-      <c r="B4" s="122"/>
-      <c r="C4" t="s" s="126">
+      <c r="E30" s="121"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="117"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="114"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="118"/>
+      <c r="D31" t="s" s="164">
         <v>72</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="121"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="118"/>
-      <c r="B5" s="122"/>
-      <c r="C5" t="s" s="126">
+      <c r="E31" s="121"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="117"/>
+    </row>
+    <row r="32" ht="13.5" customHeight="1">
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="118"/>
+      <c r="D32" t="s" s="165">
         <v>73</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="121"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="118"/>
-      <c r="B6" s="122"/>
-      <c r="C6" t="s" s="126">
-        <v>74</v>
-      </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="121"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="118"/>
-      <c r="B7" s="122"/>
-      <c r="C7" t="s" s="126">
-        <v>75</v>
-      </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="121"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="118"/>
-      <c r="B8" s="122"/>
-      <c r="C8" t="s" s="128">
-        <v>76</v>
-      </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="121"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="118"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="121"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="118"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="121"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="118"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="121"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="118"/>
-      <c r="B12" s="119"/>
-      <c r="C12" t="s" s="131">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s" s="132">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s" s="132">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s" s="132">
-        <v>80</v>
-      </c>
-      <c r="G12" t="s" s="133">
-        <v>81</v>
-      </c>
-      <c r="H12" t="s" s="134">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="14.65" customHeight="1">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
-      <c r="H13" t="s" s="140">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" s="118"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="145"/>
-      <c r="H14" t="s" s="140">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" s="118"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="150"/>
-      <c r="H15" t="s" s="140">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" s="118"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="145"/>
-      <c r="H16" t="s" s="140">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" ht="38.25" customHeight="1">
-      <c r="A17" s="118"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="150"/>
-      <c r="H17" t="s" s="140">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" s="118"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="145"/>
-      <c r="H18" t="s" s="140">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" s="118"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="150"/>
-      <c r="H19" t="s" s="140">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" s="118"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
-      <c r="H20" t="s" s="140">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="150"/>
-      <c r="H21" t="s" s="140">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="118"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
-      <c r="H22" t="s" s="140">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" ht="25.5" customHeight="1">
-      <c r="A23" s="118"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="150"/>
-      <c r="H23" t="s" s="140">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="118"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="158"/>
-      <c r="H24" t="s" s="140">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="118"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="159"/>
-      <c r="D25" t="s" s="160">
-        <v>67</v>
-      </c>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="162">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s" s="163">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="118"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="121"/>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="118"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="121"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="118"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="122"/>
-      <c r="D28" t="s" s="166">
-        <v>84</v>
-      </c>
-      <c r="E28" s="125"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="121"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="118"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="122"/>
-      <c r="D29" t="s" s="167">
-        <v>85</v>
-      </c>
-      <c r="E29" s="125"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="121"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="118"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="122"/>
-      <c r="D30" t="s" s="168">
-        <v>86</v>
-      </c>
-      <c r="E30" s="125"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="121"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="118"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="122"/>
-      <c r="D31" t="s" s="168">
-        <v>87</v>
-      </c>
-      <c r="E31" s="125"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="121"/>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="118"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="122"/>
-      <c r="D32" t="s" s="169">
-        <v>88</v>
-      </c>
-      <c r="E32" s="125"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="117"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="118"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="121"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="117"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="118"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="121"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="117"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="118"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="121"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="117"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="118"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="121"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="117"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="118"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="121"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="117"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="118"/>
-      <c r="B38" s="119"/>
-      <c r="C38" t="s" s="108">
-        <v>68</v>
-      </c>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="121"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
+      <c r="C38" t="s" s="105">
+        <v>53</v>
+      </c>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="117"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="118"/>
-      <c r="B39" s="119"/>
-      <c r="C39" t="s" s="108">
-        <v>69</v>
-      </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="121"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" t="s" s="105">
+        <v>54</v>
+      </c>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="117"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="118"/>
-      <c r="B40" s="119"/>
-      <c r="C40" t="s" s="108">
-        <v>70</v>
-      </c>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="121"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="115"/>
+      <c r="C40" t="s" s="105">
+        <v>55</v>
+      </c>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="117"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="170"/>
-      <c r="B41" s="171"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="173"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="167"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="169"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16309,12 +15631,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="174" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="174" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="174" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="174" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="174" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="174" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="170" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="170" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="170" customWidth="1"/>
+    <col min="4" max="4" width="10.1719" style="170" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="170" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="170" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -16340,34 +15662,34 @@
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" t="s" s="175">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s" s="175">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s" s="175">
-        <v>91</v>
+      <c r="B4" t="s" s="171">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s" s="171">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s" s="171">
+        <v>76</v>
       </c>
       <c r="E4" s="10"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="10"/>
-      <c r="B5" s="176"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="176"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="176"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
